--- a/log/sub-t_task-sentences_log.xlsx
+++ b/log/sub-t_task-sentences_log.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="296" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="380" uniqueCount="53">
   <si>
     <t>Trial</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>4) Falso</t>
+  </si>
+  <si>
+    <t>O queijo azul tem um sabor intenso e peculiar, ao contrário do queijo verde.</t>
   </si>
 </sst>
 </file>
@@ -222,7 +225,7 @@
   <cols>
     <col min="1" max="1" width="4.5546875" customWidth="true"/>
     <col min="2" max="2" width="9.44140625" customWidth="true"/>
-    <col min="3" max="3" width="38.44140625" customWidth="true"/>
+    <col min="3" max="3" width="62.44140625" customWidth="true"/>
     <col min="4" max="4" width="8.77734375" customWidth="true"/>
     <col min="5" max="5" width="13.21875" customWidth="true"/>
     <col min="6" max="6" width="12.21875" customWidth="true"/>
@@ -277,7 +280,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>

--- a/log/sub-t_task-sentences_log.xlsx
+++ b/log/sub-t_task-sentences_log.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="380" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="704" uniqueCount="53">
   <si>
     <t>Trial</t>
   </si>
